--- a/Dataset/Result/CamCalibrReslt.xlsx
+++ b/Dataset/Result/CamCalibrReslt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamCalibrCode\Dataset\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7B2C56-D8DF-4685-A2B9-9FD6C95E4151}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAF0D0C-D16A-46F6-96B0-98B41452768E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{700934C4-4D82-4970-813A-54C320AF1DF3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>bluefox_artemis_night</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,30 @@
   </si>
   <si>
     <t>optimize low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matlab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opencv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1982,15 +2006,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2315,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611C63E3-6C02-4803-8E8A-9D9D79A4F4B0}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2329,9 +2353,11 @@
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C1">
         <v>20211125</v>
       </c>
@@ -2341,8 +2367,14 @@
       <c r="H1" t="s">
         <v>18</v>
       </c>
+      <c r="K1">
+        <v>20211216</v>
+      </c>
+      <c r="O1">
+        <v>20211214</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -2367,8 +2399,32 @@
       <c r="I2" t="s">
         <v>17</v>
       </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -2393,8 +2449,32 @@
       <c r="I3" t="s">
         <v>15</v>
       </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2423,7 +2503,7 @@
         <v>485.41574499364901</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2452,7 +2532,7 @@
         <v>497.29911423608098</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2480,8 +2560,32 @@
       <c r="I6">
         <v>496.38503549727199</v>
       </c>
+      <c r="J6">
+        <v>976.55712532041298</v>
+      </c>
+      <c r="K6">
+        <v>977.98019880099605</v>
+      </c>
+      <c r="L6">
+        <v>673.82457306168806</v>
+      </c>
+      <c r="M6">
+        <v>496.58406832349499</v>
+      </c>
+      <c r="N6">
+        <v>977.30332833</v>
+      </c>
+      <c r="O6">
+        <v>978.96299238999995</v>
+      </c>
+      <c r="P6">
+        <v>668.61445031000005</v>
+      </c>
+      <c r="Q6">
+        <v>500.89350610000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2510,7 +2614,7 @@
         <v>494.70216874440501</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2539,7 +2643,7 @@
         <v>499.42554065241001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2568,7 +2672,7 @@
         <v>497.86749264729002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2597,7 +2701,7 @@
         <v>496.13021854791702</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2626,7 +2730,7 @@
         <v>352.75104472421901</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2655,7 +2759,7 @@
         <v>360.81228620365499</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2684,7 +2788,7 @@
         <v>358.69707256016397</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2713,7 +2817,7 @@
         <v>357.45698310968697</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>

--- a/Dataset/Result/CamCalibrReslt.xlsx
+++ b/Dataset/Result/CamCalibrReslt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamCalibrCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamCalibrCode\Dataset\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CE2879-8BA5-4465-9C65-D11929FD966C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF34F2E-B200-4D36-8884-6BE585DE3608}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{09F59CA0-44DD-4B04-B6E8-C57DCB2DEB30}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>bluefox_artemis_degenerate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,10 +183,6 @@
   </si>
   <si>
     <t>reprojection error y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -289,7 +285,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,65 +602,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B3D889-EC1D-439D-8CEA-E8B9FCCACCAB}">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="15" max="15" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -672,7 +670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -680,7 +678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -688,18 +686,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5">
         <v>20211125</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -710,43 +705,40 @@
         <v>974.91807890999996</v>
       </c>
       <c r="D6">
-        <v>0.93115625000000002</v>
+        <v>974.36902391000001</v>
       </c>
       <c r="E6">
-        <v>974.36902391000001</v>
+        <v>974.89649841000005</v>
       </c>
       <c r="F6">
-        <v>974.89649841000005</v>
+        <v>1044.1630405999999</v>
       </c>
       <c r="G6">
-        <v>1044.1630405999999</v>
+        <v>974.63222963999999</v>
       </c>
       <c r="H6">
-        <v>974.63222963999999</v>
+        <v>975.05538113</v>
       </c>
       <c r="I6">
-        <v>975.05538113</v>
+        <v>976.25894830000004</v>
       </c>
       <c r="J6">
-        <v>976.25894830000004</v>
+        <v>1014.0155104</v>
       </c>
       <c r="K6">
-        <v>1014.0155104</v>
+        <v>979.03957415000002</v>
       </c>
       <c r="L6">
-        <v>979.03957415000002</v>
+        <v>991.72351961000004</v>
       </c>
       <c r="M6">
-        <v>991.72351961000004</v>
+        <v>984.19117434999998</v>
       </c>
       <c r="N6">
-        <v>984.19117434999998</v>
-      </c>
-      <c r="O6">
         <v>915.27705366999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -754,43 +746,40 @@
         <v>976.83056263000003</v>
       </c>
       <c r="D7">
-        <v>0.90126488000000005</v>
+        <v>974.77661579000005</v>
       </c>
       <c r="E7">
-        <v>974.77661579000005</v>
+        <v>975.69977652</v>
       </c>
       <c r="F7">
-        <v>975.69977652</v>
+        <v>1043.1441212499999</v>
       </c>
       <c r="G7">
-        <v>1043.1441212499999</v>
+        <v>975.38016598000002</v>
       </c>
       <c r="H7">
-        <v>975.38016598000002</v>
+        <v>975.79151550999995</v>
       </c>
       <c r="I7">
-        <v>975.79151550999995</v>
+        <v>978.15630088</v>
       </c>
       <c r="J7">
-        <v>978.15630088</v>
+        <v>1011.24633483</v>
       </c>
       <c r="K7">
-        <v>1011.24633483</v>
+        <v>975.71493415999998</v>
       </c>
       <c r="L7">
-        <v>975.71493415999998</v>
+        <v>988.57470626999998</v>
       </c>
       <c r="M7">
-        <v>988.57470626999998</v>
+        <v>981.73499262999997</v>
       </c>
       <c r="N7">
-        <v>981.73499262999997</v>
-      </c>
-      <c r="O7">
         <v>912.10603903000003</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -798,43 +787,40 @@
         <v>670.45771646000003</v>
       </c>
       <c r="D8">
-        <v>0.97855358999999997</v>
-      </c>
-      <c r="E8">
         <v>674.22837643000003</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="3">
         <v>668.92232629</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="3">
         <v>664.35336566000001</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="3">
         <v>668.29266882000002</v>
       </c>
-      <c r="I8">
+      <c r="H8" s="3">
         <v>664.16063186999997</v>
       </c>
-      <c r="J8">
+      <c r="I8" s="3">
         <v>659.34772351000004</v>
       </c>
-      <c r="K8">
+      <c r="J8" s="3">
         <v>650.26655261999997</v>
       </c>
-      <c r="L8">
+      <c r="K8" s="3">
         <v>633.00665663999996</v>
       </c>
-      <c r="M8">
+      <c r="L8" s="3">
         <v>636.67544424000005</v>
       </c>
-      <c r="N8">
+      <c r="M8" s="3">
         <v>630.18815526000003</v>
       </c>
-      <c r="O8">
+      <c r="N8" s="3">
         <v>632.17476227999998</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -842,43 +828,40 @@
         <v>501.00225083999999</v>
       </c>
       <c r="D9">
-        <v>0.92390298999999998</v>
-      </c>
-      <c r="E9">
         <v>499.03293481999998</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="3">
         <v>501.47165517000002</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="3">
         <v>494.71854105</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="3">
         <v>502.63041340000001</v>
       </c>
-      <c r="I9">
+      <c r="H9" s="3">
         <v>501.15090445999999</v>
       </c>
-      <c r="J9">
+      <c r="I9" s="3">
         <v>503.12192270999998</v>
       </c>
-      <c r="K9">
+      <c r="J9" s="3">
         <v>354.79936932999999</v>
       </c>
-      <c r="L9">
+      <c r="K9" s="3">
         <v>359.33618876999998</v>
       </c>
-      <c r="M9">
+      <c r="L9" s="3">
         <v>361.44613648000001</v>
       </c>
-      <c r="N9">
+      <c r="M9" s="3">
         <v>357.92285902999998</v>
       </c>
-      <c r="O9">
+      <c r="N9" s="3">
         <v>349.51992281000003</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -889,13 +872,40 @@
         <v>-0.11309316</v>
       </c>
       <c r="D10">
-        <v>1.4880799999999999E-3</v>
-      </c>
-      <c r="F10">
+        <v>-0.11509844</v>
+      </c>
+      <c r="E10" s="3">
         <v>-0.11581716</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F10" s="3">
+        <v>-0.30033195000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-0.10690687</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-0.10614796</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-0.10357209000000001</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3.5440119999999999E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5.6225329999999997E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>4.28481E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>7.1671860000000004E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.11381123999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -903,13 +913,40 @@
         <v>9.9852910000000003E-2</v>
       </c>
       <c r="D11">
-        <v>2.4374700000000002E-3</v>
-      </c>
-      <c r="F11">
+        <v>0.10174748</v>
+      </c>
+      <c r="E11" s="3">
         <v>0.111052</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F11" s="3">
+        <v>0.10929431000000001</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9.2973050000000002E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8.7379719999999994E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>8.591915E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-3.9653319999999999E-2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-0.15317069</v>
+      </c>
+      <c r="L11" s="3">
+        <v>-0.12674849999999999</v>
+      </c>
+      <c r="M11" s="3">
+        <v>-0.21730210999999999</v>
+      </c>
+      <c r="N11" s="3">
+        <v>-0.25200052000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -917,13 +954,40 @@
         <v>6.5138999999999996E-4</v>
       </c>
       <c r="D12">
-        <v>2.2617000000000001E-4</v>
-      </c>
-      <c r="F12">
+        <v>1.8887E-4</v>
+      </c>
+      <c r="E12" s="3">
         <v>1.3311E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F12" s="3">
+        <v>-7.9820000000000005E-5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.55985E-3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2.0072800000000002E-3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2.1566100000000002E-3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6.9561999999999998E-4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>-7.9936999999999999E-4</v>
+      </c>
+      <c r="L12" s="3">
+        <v>5.2139000000000005E-4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>-3.2164999999999998E-4</v>
+      </c>
+      <c r="N12" s="3">
+        <v>-6.0300999999999996E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -931,13 +995,40 @@
         <v>-1.14135E-3</v>
       </c>
       <c r="D13">
-        <v>2.6212000000000002E-4</v>
-      </c>
-      <c r="F13">
+        <v>-3.2709999999999998E-4</v>
+      </c>
+      <c r="E13" s="3">
         <v>-1.5702699999999999E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F13" s="3">
+        <v>2.0378E-4</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-1.8445200000000001E-3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-2.3595000000000001E-3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>-3.90976E-3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.5787900000000001E-3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2.73522E-3</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.37301E-3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>7.0368000000000004E-4</v>
+      </c>
+      <c r="N13" s="3">
+        <v>3.9906000000000002E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -945,13 +1036,40 @@
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="D14">
-        <v>0.167689</v>
-      </c>
-      <c r="F14">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F14" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-1.5999999999999999E-5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-6.9999999999999999E-6</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -959,21 +1077,70 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="D15">
-        <v>0.175922</v>
-      </c>
-      <c r="F15">
+        <v>-9.0000000000000002E-6</v>
+      </c>
+      <c r="E15" s="3">
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-3.9999999999999998E-6</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="J15" s="3">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-6.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -984,8 +1151,16 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -993,8 +1168,16 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1005,8 +1188,16 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1016,26 +1207,82 @@
       <c r="C21" s="3">
         <v>1072.3499999999999</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="3">
+        <v>1076.6600000000001</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1098.8399999999999</v>
+      </c>
       <c r="F21" s="3">
-        <v>1098.8399999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>801.12900000000002</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1081.24</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1081.24</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1081.24</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1007.52</v>
+      </c>
+      <c r="K21" s="3">
+        <v>999.19399999999996</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1007.77</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1009.12</v>
+      </c>
+      <c r="N21" s="3">
+        <v>925.29200000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="3">
         <v>1074.28</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="3">
+        <v>1077.78</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1100.52</v>
+      </c>
       <c r="F22" s="3">
-        <v>1100.52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>800.79100000000005</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1081.96</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1081.96</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1081.96</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1005.31</v>
+      </c>
+      <c r="K22" s="3">
+        <v>998.20399999999995</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1005.53</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1007.09</v>
+      </c>
+      <c r="N22" s="3">
+        <v>921.13800000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>22</v>
@@ -1043,13 +1290,41 @@
       <c r="C23" s="3">
         <v>673.98099999999999</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="3">
+        <v>677.51700000000005</v>
+      </c>
+      <c r="E23" s="3">
+        <v>672.92</v>
+      </c>
       <c r="F23" s="3">
-        <v>672.92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>665.12900000000002</v>
+      </c>
+      <c r="G23" s="3">
+        <v>673.65700000000004</v>
+      </c>
+      <c r="H23" s="3">
+        <v>673.65700000000004</v>
+      </c>
+      <c r="I23" s="3">
+        <v>673.65700000000004</v>
+      </c>
+      <c r="J23" s="3">
+        <v>647.15099999999995</v>
+      </c>
+      <c r="K23" s="3">
+        <v>632.404</v>
+      </c>
+      <c r="L23" s="3">
+        <v>632.47699999999998</v>
+      </c>
+      <c r="M23" s="3">
+        <v>632.80899999999997</v>
+      </c>
+      <c r="N23" s="3">
+        <v>631.66300000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" t="s">
         <v>23</v>
@@ -1057,13 +1332,41 @@
       <c r="C24" s="3">
         <v>495.84399999999999</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="3">
+        <v>497.286</v>
+      </c>
+      <c r="E24" s="3">
+        <v>496.39</v>
+      </c>
       <c r="F24" s="3">
-        <v>496.39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>494.69299999999998</v>
+      </c>
+      <c r="G24" s="3">
+        <v>499.42500000000001</v>
+      </c>
+      <c r="H24" s="3">
+        <v>499.42500000000001</v>
+      </c>
+      <c r="I24" s="3">
+        <v>499.42500000000001</v>
+      </c>
+      <c r="J24" s="3">
+        <v>352.74400000000003</v>
+      </c>
+      <c r="K24" s="3">
+        <v>360.85</v>
+      </c>
+      <c r="L24" s="3">
+        <v>358.60599999999999</v>
+      </c>
+      <c r="M24" s="3">
+        <v>357.529</v>
+      </c>
+      <c r="N24" s="3">
+        <v>353.46800000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>34</v>
@@ -1071,13 +1374,41 @@
       <c r="C25" s="3">
         <v>0.106269</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="3">
+        <v>9.8456299999999997E-2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.12606800000000001</v>
+      </c>
       <c r="F25" s="3">
-        <v>0.12606800000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-0.23340900000000001</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.110331</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.110331</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.110331</v>
+      </c>
+      <c r="J25" s="3">
+        <v>-8.6332200000000005E-3</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1.27169E-4</v>
+      </c>
+      <c r="L25" s="3">
+        <v>9.9390699999999995E-3</v>
+      </c>
+      <c r="M25" s="3">
+        <v>4.75101E-3</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1.3766099999999999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>35</v>
@@ -1085,13 +1416,41 @@
       <c r="C26" s="3">
         <v>5.8031100000000002E-2</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="3">
+        <v>5.3404899999999998E-2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7.0171399999999995E-2</v>
+      </c>
       <c r="F26" s="3">
-        <v>7.0171399999999995E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.55045900000000003</v>
+      </c>
+      <c r="G26" s="3">
+        <v>6.05126E-2</v>
+      </c>
+      <c r="H26" s="3">
+        <v>6.0512499999999997E-2</v>
+      </c>
+      <c r="I26" s="3">
+        <v>6.0512700000000003E-2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1099,13 +1458,41 @@
       <c r="C27" s="3">
         <v>0.42056500000000002</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="3">
+        <v>0.32139899999999999</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.15276000000000001</v>
+      </c>
       <c r="F27" s="3">
-        <v>0.15276000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6.4026799999999995E-2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.63475300000000001</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.63475300000000001</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.63475300000000001</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.400698</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.35143000000000002</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.47082499999999999</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.468468</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.63031599999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1113,13 +1500,41 @@
       <c r="C28" s="3">
         <v>6236.73</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="3">
+        <v>5247.06</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3412.27</v>
+      </c>
       <c r="F28" s="3">
-        <v>3412.27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1679.46</v>
+      </c>
+      <c r="G28" s="3">
+        <v>7434.43</v>
+      </c>
+      <c r="H28" s="3">
+        <v>7434.43</v>
+      </c>
+      <c r="I28" s="3">
+        <v>7434.43</v>
+      </c>
+      <c r="J28" s="3">
+        <v>20272.7</v>
+      </c>
+      <c r="K28" s="3">
+        <v>7209.59</v>
+      </c>
+      <c r="L28" s="3">
+        <v>8239.66</v>
+      </c>
+      <c r="M28" s="3">
+        <v>8244.32</v>
+      </c>
+      <c r="N28" s="3">
+        <v>28371.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1127,246 +1542,579 @@
       <c r="C29" s="3">
         <v>0.45603500000000002</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="D29" s="3">
+        <v>0.42994599999999999</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.243316</v>
+      </c>
       <c r="F29" s="3">
-        <v>0.243316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.202735</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.55315700000000001</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.55315700000000001</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.55315700000000001</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.48104599999999997</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.49570900000000001</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.566689</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.57331900000000002</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.65867600000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
+      <c r="B33"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="B34">
-        <v>20211216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="4">
-        <v>976.55712532041298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>991.33699999999999</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36"/>
       <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="4">
-        <v>977.98019880099605</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>994.16700000000003</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37"/>
       <c r="B37" t="s">
         <v>22</v>
       </c>
-      <c r="F37">
-        <v>673.82457306168806</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <v>673.11900000000003</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38"/>
       <c r="B38" t="s">
         <v>23</v>
       </c>
-      <c r="F38">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <v>487.52199999999999</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
+        <v>0.91605999999999999</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
+        <v>9768.9699999999993</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
+        <v>0.69658900000000001</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>20211216</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="4">
+        <v>976.55712532041298</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="4">
+        <v>977.98019880099605</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="3">
+        <v>673.82457306168806</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="3">
         <v>496.58406832349499</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51">
+        <v>-0.110160221624095</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52">
+        <v>9.8677774133218904E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>41</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55">
+        <v>0.23002407246565101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62">
+        <v>20211214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63">
+        <v>977.30332833</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64">
+        <v>978.96299238999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65">
+        <v>668.61445031000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66">
+        <v>500.89350610000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" t="s">
         <v>27</v>
       </c>
-      <c r="F39">
-        <v>-0.110160221624095</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="E67">
+        <v>-0.11461281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>28</v>
       </c>
-      <c r="F40">
-        <v>9.8677774133218904E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="E68">
+        <v>0.12946814000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>29</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+      <c r="E69">
+        <v>1.4266700000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>30</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="E70">
+        <v>-1.48431E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>43</v>
       </c>
-      <c r="F43">
-        <v>0.23002407246565101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50">
-        <v>20211214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51">
-        <v>977.30332833</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52">
-        <v>978.96299238999995</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53">
-        <v>668.61445031000005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54">
-        <v>500.89350610000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55">
-        <v>-0.11461281</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56">
-        <v>0.12946814000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57">
-        <v>1.4266700000000001E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58">
-        <v>-1.48431E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+      <c r="E71">
+        <v>-4.6177059999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>44</v>
       </c>
-      <c r="F59">
-        <v>-4.6177059999999999E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60">
+      <c r="E72">
         <v>0.34789329373986699</v>
       </c>
     </row>

--- a/Dataset/Result/CamCalibrReslt.xlsx
+++ b/Dataset/Result/CamCalibrReslt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamCalibrCode\Dataset\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF34F2E-B200-4D36-8884-6BE585DE3608}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006D47D6-C63A-4CBF-B4A5-D541D0155DF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{09F59CA0-44DD-4B04-B6E8-C57DCB2DEB30}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="45">
   <si>
     <t>bluefox_artemis_degenerate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B3D889-EC1D-439D-8CEA-E8B9FCCACCAB}">
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -695,440 +695,460 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>974.91807890999996</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>974.36902391000001</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>974.89649841000005</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>1044.1630405999999</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>974.63222963999999</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>975.05538113</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>976.25894830000004</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>1014.0155104</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>979.03957415000002</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>991.72351961000004</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>984.19117434999998</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>915.27705366999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>976.83056263000003</v>
-      </c>
-      <c r="D7">
-        <v>974.77661579000005</v>
-      </c>
-      <c r="E7">
-        <v>975.69977652</v>
-      </c>
-      <c r="F7">
-        <v>1043.1441212499999</v>
-      </c>
-      <c r="G7">
-        <v>975.38016598000002</v>
-      </c>
-      <c r="H7">
-        <v>975.79151550999995</v>
-      </c>
-      <c r="I7">
-        <v>978.15630088</v>
-      </c>
-      <c r="J7">
-        <v>1011.24633483</v>
-      </c>
-      <c r="K7">
-        <v>975.71493415999998</v>
-      </c>
-      <c r="L7">
-        <v>988.57470626999998</v>
-      </c>
-      <c r="M7">
-        <v>981.73499262999997</v>
-      </c>
-      <c r="N7">
-        <v>912.10603903000003</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>670.45771646000003</v>
+        <v>976.83056263000003</v>
       </c>
       <c r="D8">
-        <v>674.22837643000003</v>
-      </c>
-      <c r="E8" s="3">
-        <v>668.92232629</v>
-      </c>
-      <c r="F8" s="3">
-        <v>664.35336566000001</v>
-      </c>
-      <c r="G8" s="3">
-        <v>668.29266882000002</v>
-      </c>
-      <c r="H8" s="3">
-        <v>664.16063186999997</v>
-      </c>
-      <c r="I8" s="3">
-        <v>659.34772351000004</v>
-      </c>
-      <c r="J8" s="3">
-        <v>650.26655261999997</v>
-      </c>
-      <c r="K8" s="3">
-        <v>633.00665663999996</v>
-      </c>
-      <c r="L8" s="3">
-        <v>636.67544424000005</v>
-      </c>
-      <c r="M8" s="3">
-        <v>630.18815526000003</v>
-      </c>
-      <c r="N8" s="3">
-        <v>632.17476227999998</v>
+        <v>974.77661579000005</v>
+      </c>
+      <c r="E8">
+        <v>975.69977652</v>
+      </c>
+      <c r="F8">
+        <v>1043.1441212499999</v>
+      </c>
+      <c r="G8">
+        <v>975.38016598000002</v>
+      </c>
+      <c r="H8">
+        <v>975.79151550999995</v>
+      </c>
+      <c r="I8">
+        <v>978.15630088</v>
+      </c>
+      <c r="J8">
+        <v>1011.24633483</v>
+      </c>
+      <c r="K8">
+        <v>975.71493415999998</v>
+      </c>
+      <c r="L8">
+        <v>988.57470626999998</v>
+      </c>
+      <c r="M8">
+        <v>981.73499262999997</v>
+      </c>
+      <c r="N8">
+        <v>912.10603903000003</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>670.45771646000003</v>
+      </c>
+      <c r="D9">
+        <v>674.22837643000003</v>
+      </c>
+      <c r="E9" s="3">
+        <v>668.92232629</v>
+      </c>
+      <c r="F9" s="3">
+        <v>664.35336566000001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>668.29266882000002</v>
+      </c>
+      <c r="H9" s="3">
+        <v>664.16063186999997</v>
+      </c>
+      <c r="I9" s="3">
+        <v>659.34772351000004</v>
+      </c>
+      <c r="J9" s="3">
+        <v>650.26655261999997</v>
+      </c>
+      <c r="K9" s="3">
+        <v>633.00665663999996</v>
+      </c>
+      <c r="L9" s="3">
+        <v>636.67544424000005</v>
+      </c>
+      <c r="M9" s="3">
+        <v>630.18815526000003</v>
+      </c>
+      <c r="N9" s="3">
+        <v>632.17476227999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>501.00225083999999</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>499.03293481999998</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>501.47165517000002</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <v>494.71854105</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <v>502.63041340000001</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="3">
         <v>501.15090445999999</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I10" s="3">
         <v>503.12192270999998</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J10" s="3">
         <v>354.79936932999999</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K10" s="3">
         <v>359.33618876999998</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L10" s="3">
         <v>361.44613648000001</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M10" s="3">
         <v>357.92285902999998</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N10" s="3">
         <v>349.51992281000003</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-0.11309316</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-0.11509844</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <v>-0.11581716</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="3">
         <v>-0.30033195000000001</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <v>-0.10690687</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="3">
         <v>-0.10614796</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="3">
         <v>-0.10357209000000001</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J11" s="3">
         <v>3.5440119999999999E-2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K11" s="3">
         <v>5.6225329999999997E-2</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L11" s="3">
         <v>4.28481E-2</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M11" s="3">
         <v>7.1671860000000004E-2</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N11" s="3">
         <v>0.11381123999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>9.9852910000000003E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.10174748</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.111052</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.10929431000000001</v>
-      </c>
-      <c r="G11" s="3">
-        <v>9.2973050000000002E-2</v>
-      </c>
-      <c r="H11" s="3">
-        <v>8.7379719999999994E-2</v>
-      </c>
-      <c r="I11" s="3">
-        <v>8.591915E-2</v>
-      </c>
-      <c r="J11" s="3">
-        <v>-3.9653319999999999E-2</v>
-      </c>
-      <c r="K11" s="3">
-        <v>-0.15317069</v>
-      </c>
-      <c r="L11" s="3">
-        <v>-0.12674849999999999</v>
-      </c>
-      <c r="M11" s="3">
-        <v>-0.21730210999999999</v>
-      </c>
-      <c r="N11" s="3">
-        <v>-0.25200052000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>6.5138999999999996E-4</v>
+        <v>9.9852910000000003E-2</v>
       </c>
       <c r="D12">
-        <v>1.8887E-4</v>
+        <v>0.10174748</v>
       </c>
       <c r="E12" s="3">
-        <v>1.3311E-3</v>
+        <v>0.111052</v>
       </c>
       <c r="F12" s="3">
-        <v>-7.9820000000000005E-5</v>
+        <v>0.10929431000000001</v>
       </c>
       <c r="G12" s="3">
-        <v>1.55985E-3</v>
+        <v>9.2973050000000002E-2</v>
       </c>
       <c r="H12" s="3">
-        <v>2.0072800000000002E-3</v>
+        <v>8.7379719999999994E-2</v>
       </c>
       <c r="I12" s="3">
-        <v>2.1566100000000002E-3</v>
+        <v>8.591915E-2</v>
       </c>
       <c r="J12" s="3">
-        <v>6.9561999999999998E-4</v>
+        <v>-3.9653319999999999E-2</v>
       </c>
       <c r="K12" s="3">
-        <v>-7.9936999999999999E-4</v>
+        <v>-0.15317069</v>
       </c>
       <c r="L12" s="3">
-        <v>5.2139000000000005E-4</v>
+        <v>-0.12674849999999999</v>
       </c>
       <c r="M12" s="3">
-        <v>-3.2164999999999998E-4</v>
+        <v>-0.21730210999999999</v>
       </c>
       <c r="N12" s="3">
-        <v>-6.0300999999999996E-4</v>
+        <v>-0.25200052000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>6.5138999999999996E-4</v>
+      </c>
+      <c r="D13">
+        <v>1.8887E-4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.3311E-3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-7.9820000000000005E-5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.55985E-3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2.0072800000000002E-3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2.1566100000000002E-3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>6.9561999999999998E-4</v>
+      </c>
+      <c r="K13" s="3">
+        <v>-7.9936999999999999E-4</v>
+      </c>
+      <c r="L13" s="3">
+        <v>5.2139000000000005E-4</v>
+      </c>
+      <c r="M13" s="3">
+        <v>-3.2164999999999998E-4</v>
+      </c>
+      <c r="N13" s="3">
+        <v>-6.0300999999999996E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>-1.14135E-3</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>-3.2709999999999998E-4</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <v>-1.5702699999999999E-3</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <v>2.0378E-4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <v>-1.8445200000000001E-3</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="3">
         <v>-2.3595000000000001E-3</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I14" s="3">
         <v>-3.90976E-3</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J14" s="3">
         <v>1.5787900000000001E-3</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K14" s="3">
         <v>2.73522E-3</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L14" s="3">
         <v>1.37301E-3</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M14" s="3">
         <v>7.0368000000000004E-4</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N14" s="3">
         <v>3.9906000000000002E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="D14">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-1.9999999999999999E-6</v>
-      </c>
-      <c r="F14" s="3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-1.5999999999999999E-5</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-6.9999999999999999E-6</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>-1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15">
-        <v>6.0000000000000002E-6</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="D15">
-        <v>-9.0000000000000002E-6</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="E15" s="3">
-        <v>1.9999999999999999E-6</v>
+        <v>-1.9999999999999999E-6</v>
       </c>
       <c r="F15" s="3">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G15" s="3">
-        <v>-3.9999999999999998E-6</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="H15" s="3">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="I15" s="3">
-        <v>-9.9999999999999995E-7</v>
+        <v>-1.5999999999999999E-5</v>
       </c>
       <c r="J15" s="3">
-        <v>6.9999999999999999E-6</v>
+        <v>-6.9999999999999999E-6</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="D16">
+        <v>-9.0000000000000002E-6</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-3.9999999999999998E-6</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="I16" s="3">
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M15" s="3">
+      <c r="J16" s="3">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="N15" s="3">
+      <c r="M16" s="3">
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="N16" s="3">
         <v>-6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1142,13 +1162,11 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1162,7 +1180,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1179,10 +1200,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>20220111</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1199,426 +1217,446 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>20220111</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>1072.3499999999999</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>1076.6600000000001</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <v>1098.8399999999999</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <v>801.12900000000002</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <v>1081.24</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <v>1081.24</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I22" s="3">
         <v>1081.24</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J22" s="3">
         <v>1007.52</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K22" s="3">
         <v>999.19399999999996</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L22" s="3">
         <v>1007.77</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M22" s="3">
         <v>1009.12</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N22" s="3">
         <v>925.29200000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>1074.28</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>1077.78</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>1100.52</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F23" s="3">
         <v>800.79100000000005</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <v>1081.96</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <v>1081.96</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="3">
         <v>1081.96</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J23" s="3">
         <v>1005.31</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K23" s="3">
         <v>998.20399999999995</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L23" s="3">
         <v>1005.53</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M23" s="3">
         <v>1007.09</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N23" s="3">
         <v>921.13800000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23"/>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3">
-        <v>673.98099999999999</v>
-      </c>
-      <c r="D23" s="3">
-        <v>677.51700000000005</v>
-      </c>
-      <c r="E23" s="3">
-        <v>672.92</v>
-      </c>
-      <c r="F23" s="3">
-        <v>665.12900000000002</v>
-      </c>
-      <c r="G23" s="3">
-        <v>673.65700000000004</v>
-      </c>
-      <c r="H23" s="3">
-        <v>673.65700000000004</v>
-      </c>
-      <c r="I23" s="3">
-        <v>673.65700000000004</v>
-      </c>
-      <c r="J23" s="3">
-        <v>647.15099999999995</v>
-      </c>
-      <c r="K23" s="3">
-        <v>632.404</v>
-      </c>
-      <c r="L23" s="3">
-        <v>632.47699999999998</v>
-      </c>
-      <c r="M23" s="3">
-        <v>632.80899999999997</v>
-      </c>
-      <c r="N23" s="3">
-        <v>631.66300000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3">
-        <v>495.84399999999999</v>
+        <v>673.98099999999999</v>
       </c>
       <c r="D24" s="3">
-        <v>497.286</v>
+        <v>677.51700000000005</v>
       </c>
       <c r="E24" s="3">
-        <v>496.39</v>
+        <v>672.92</v>
       </c>
       <c r="F24" s="3">
-        <v>494.69299999999998</v>
+        <v>665.12900000000002</v>
       </c>
       <c r="G24" s="3">
-        <v>499.42500000000001</v>
+        <v>673.65700000000004</v>
       </c>
       <c r="H24" s="3">
-        <v>499.42500000000001</v>
+        <v>673.65700000000004</v>
       </c>
       <c r="I24" s="3">
-        <v>499.42500000000001</v>
+        <v>673.65700000000004</v>
       </c>
       <c r="J24" s="3">
-        <v>352.74400000000003</v>
+        <v>647.15099999999995</v>
       </c>
       <c r="K24" s="3">
-        <v>360.85</v>
+        <v>632.404</v>
       </c>
       <c r="L24" s="3">
-        <v>358.60599999999999</v>
+        <v>632.47699999999998</v>
       </c>
       <c r="M24" s="3">
-        <v>357.529</v>
+        <v>632.80899999999997</v>
       </c>
       <c r="N24" s="3">
-        <v>353.46800000000002</v>
+        <v>631.66300000000001</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3">
-        <v>0.106269</v>
+        <v>495.84399999999999</v>
       </c>
       <c r="D25" s="3">
-        <v>9.8456299999999997E-2</v>
+        <v>497.286</v>
       </c>
       <c r="E25" s="3">
-        <v>0.12606800000000001</v>
+        <v>496.39</v>
       </c>
       <c r="F25" s="3">
-        <v>-0.23340900000000001</v>
+        <v>494.69299999999998</v>
       </c>
       <c r="G25" s="3">
-        <v>0.110331</v>
+        <v>499.42500000000001</v>
       </c>
       <c r="H25" s="3">
-        <v>0.110331</v>
+        <v>499.42500000000001</v>
       </c>
       <c r="I25" s="3">
-        <v>0.110331</v>
+        <v>499.42500000000001</v>
       </c>
       <c r="J25" s="3">
-        <v>-8.6332200000000005E-3</v>
+        <v>352.74400000000003</v>
       </c>
       <c r="K25" s="3">
-        <v>1.27169E-4</v>
+        <v>360.85</v>
       </c>
       <c r="L25" s="3">
-        <v>9.9390699999999995E-3</v>
+        <v>358.60599999999999</v>
       </c>
       <c r="M25" s="3">
-        <v>4.75101E-3</v>
+        <v>357.529</v>
       </c>
       <c r="N25" s="3">
-        <v>1.3766099999999999E-3</v>
+        <v>353.46800000000002</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.106269</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9.8456299999999997E-2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.12606800000000001</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-0.23340900000000001</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.110331</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.110331</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.110331</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-8.6332200000000005E-3</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1.27169E-4</v>
+      </c>
+      <c r="L26" s="3">
+        <v>9.9390699999999995E-3</v>
+      </c>
+      <c r="M26" s="3">
+        <v>4.75101E-3</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1.3766099999999999E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27"/>
+      <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>5.8031100000000002E-2</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D27" s="3">
         <v>5.3404899999999998E-2</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27" s="3">
         <v>7.0171399999999995E-2</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F27" s="3">
         <v>0.55045900000000003</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G27" s="3">
         <v>6.05126E-2</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H27" s="3">
         <v>6.0512499999999997E-2</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I27" s="3">
         <v>6.0512700000000003E-2</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M27" s="3">
         <v>0</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N27" s="3">
         <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27"/>
-      <c r="C27" s="3">
-        <v>0.42056500000000002</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.32139899999999999</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.15276000000000001</v>
-      </c>
-      <c r="F27" s="3">
-        <v>6.4026799999999995E-2</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0.63475300000000001</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0.63475300000000001</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0.63475300000000001</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0.400698</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0.35143000000000002</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0.47082499999999999</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0.468468</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0.63031599999999999</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28"/>
       <c r="C28" s="3">
-        <v>6236.73</v>
+        <v>0.42056500000000002</v>
       </c>
       <c r="D28" s="3">
-        <v>5247.06</v>
+        <v>0.32139899999999999</v>
       </c>
       <c r="E28" s="3">
-        <v>3412.27</v>
+        <v>0.15276000000000001</v>
       </c>
       <c r="F28" s="3">
-        <v>1679.46</v>
+        <v>6.4026799999999995E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>7434.43</v>
+        <v>0.63475300000000001</v>
       </c>
       <c r="H28" s="3">
-        <v>7434.43</v>
+        <v>0.63475300000000001</v>
       </c>
       <c r="I28" s="3">
-        <v>7434.43</v>
+        <v>0.63475300000000001</v>
       </c>
       <c r="J28" s="3">
-        <v>20272.7</v>
+        <v>0.400698</v>
       </c>
       <c r="K28" s="3">
-        <v>7209.59</v>
+        <v>0.35143000000000002</v>
       </c>
       <c r="L28" s="3">
-        <v>8239.66</v>
+        <v>0.47082499999999999</v>
       </c>
       <c r="M28" s="3">
-        <v>8244.32</v>
+        <v>0.468468</v>
       </c>
       <c r="N28" s="3">
-        <v>28371.8</v>
+        <v>0.63031599999999999</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B29"/>
       <c r="C29" s="3">
-        <v>0.45603500000000002</v>
+        <v>6236.73</v>
       </c>
       <c r="D29" s="3">
-        <v>0.42994599999999999</v>
+        <v>5247.06</v>
       </c>
       <c r="E29" s="3">
-        <v>0.243316</v>
+        <v>3412.27</v>
       </c>
       <c r="F29" s="3">
-        <v>0.202735</v>
+        <v>1679.46</v>
       </c>
       <c r="G29" s="3">
-        <v>0.55315700000000001</v>
+        <v>7434.43</v>
       </c>
       <c r="H29" s="3">
-        <v>0.55315700000000001</v>
+        <v>7434.43</v>
       </c>
       <c r="I29" s="3">
-        <v>0.55315700000000001</v>
+        <v>7434.43</v>
       </c>
       <c r="J29" s="3">
-        <v>0.48104599999999997</v>
+        <v>20272.7</v>
       </c>
       <c r="K29" s="3">
-        <v>0.49570900000000001</v>
+        <v>7209.59</v>
       </c>
       <c r="L29" s="3">
-        <v>0.566689</v>
+        <v>8239.66</v>
       </c>
       <c r="M29" s="3">
-        <v>0.57331900000000002</v>
+        <v>8244.32</v>
       </c>
       <c r="N29" s="3">
-        <v>0.65867600000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+        <v>28371.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.45603500000000002</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.42994599999999999</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.243316</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.202735</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.55315700000000001</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.55315700000000001</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.55315700000000001</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.48104599999999997</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.49570900000000001</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.566689</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.57331900000000002</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.65867600000000004</v>
+      </c>
     </row>
     <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
+      <c r="A32"/>
+      <c r="B32"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1634,9 +1672,11 @@
     </row>
     <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33"/>
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1652,9 +1692,11 @@
     </row>
     <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34"/>
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1670,15 +1712,12 @@
     </row>
     <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3">
-        <v>991.33699999999999</v>
-      </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1690,14 +1729,13 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36"/>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3">
-        <v>994.16700000000003</v>
-      </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1709,13 +1747,15 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37"/>
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3">
-        <v>673.11900000000003</v>
+        <v>991.33699999999999</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1730,11 +1770,11 @@
     <row r="38" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3">
-        <v>487.52199999999999</v>
+        <v>994.16700000000003</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -1747,13 +1787,13 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39"/>
+      <c r="A39"/>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3">
-        <v>0.91605999999999999</v>
+        <v>673.11900000000003</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1766,13 +1806,13 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40"/>
+      <c r="A40"/>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3">
-        <v>9768.9699999999993</v>
+        <v>487.52199999999999</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1786,12 +1826,12 @@
     </row>
     <row r="41" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3">
-        <v>0.69658900000000001</v>
+        <v>0.91605999999999999</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -1803,10 +1843,15 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C42" s="3"/>
+    <row r="42" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="E42" s="3">
+        <v>9768.9699999999993</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -1817,16 +1862,15 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B43"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="E43" s="3">
+        <v>0.69658900000000001</v>
+      </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -1838,9 +1882,6 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>14</v>
-      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1856,7 +1897,10 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1873,11 +1917,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46">
-        <v>20211216</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -1891,14 +1934,11 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="4">
-        <v>976.55712532041298</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -1910,12 +1950,13 @@
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="4">
-        <v>977.98019880099605</v>
-      </c>
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>20211216</v>
+      </c>
+      <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -1927,11 +1968,14 @@
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
       <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="3">
-        <v>673.82457306168806</v>
+        <v>20</v>
+      </c>
+      <c r="E49" s="4">
+        <v>976.55712532041298</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -1945,10 +1989,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="3">
-        <v>496.58406832349499</v>
+        <v>21</v>
+      </c>
+      <c r="E50" s="4">
+        <v>977.98019880099605</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -1961,160 +2005,194 @@
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>40</v>
-      </c>
       <c r="B51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51">
-        <v>-0.110160221624095</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E51" s="3">
+        <v>673.82457306168806</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52">
-        <v>9.8677774133218904E-2</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E52" s="3">
+        <v>496.58406832349499</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>-0.110160221624095</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>9.8677774133218904E-2</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>42</v>
       </c>
-      <c r="E55">
+      <c r="E57">
         <v>0.23002407246565101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62">
-        <v>20211214</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64">
+        <v>20211214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>26</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
         <v>20</v>
       </c>
-      <c r="E63">
+      <c r="E65">
         <v>977.30332833</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64">
-        <v>978.96299238999995</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65">
-        <v>668.61445031000005</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E66">
-        <v>500.89350610000002</v>
+        <v>978.96299238999995</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>19</v>
-      </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E67">
-        <v>-0.11461281</v>
+        <v>668.61445031000005</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E68">
-        <v>0.12946814000000001</v>
+        <v>500.89350610000002</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E69">
-        <v>1.4266700000000001E-3</v>
+        <v>-0.11461281</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E70">
-        <v>-1.48431E-3</v>
+        <v>0.12946814000000001</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71">
+        <v>1.4266700000000001E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72">
+        <v>-1.48431E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>43</v>
       </c>
-      <c r="E71">
+      <c r="E73">
         <v>-4.6177059999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>44</v>
       </c>
-      <c r="E72">
+      <c r="E74">
         <v>0.34789329373986699</v>
       </c>
     </row>

--- a/Dataset/Result/CamCalibrReslt.xlsx
+++ b/Dataset/Result/CamCalibrReslt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamCalibrCode\Dataset\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006D47D6-C63A-4CBF-B4A5-D541D0155DF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B620FF1-41D0-4FDA-A473-710AE97950B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{09F59CA0-44DD-4B04-B6E8-C57DCB2DEB30}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
   <si>
     <t>bluefox_artemis_degenerate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,62 @@
   </si>
   <si>
     <t>retval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>omni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_1988_1326_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_1988_1326_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_3976_2652_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_3976_2652_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_994_663_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_994_663_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning: Max iteration step 100 is reached.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Could not compute homography for 13 out 100 images. The most likely reason is that these images contain fewer than 4 non-collinear points. The indices of the images for which homography was successfully computed are returned in validImageIndices, the second output of estimateCameraParameters.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reprojection error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,6 +342,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B3D889-EC1D-439D-8CEA-E8B9FCCACCAB}">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -622,117 +681,162 @@
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.625" customWidth="1"/>
+    <col min="16" max="18" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>20211125</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -775,8 +879,29 @@
       <c r="N7">
         <v>915.27705366999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7">
+        <v>3979.6866527468801</v>
+      </c>
+      <c r="Q7">
+        <v>3978.0668271383402</v>
+      </c>
+      <c r="R7">
+        <v>1934.9632116299999</v>
+      </c>
+      <c r="S7">
+        <v>1934.20281346</v>
+      </c>
+      <c r="T7">
+        <v>808.30444007000006</v>
+      </c>
+      <c r="U7">
+        <v>809.70130953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -816,8 +941,26 @@
       <c r="N8">
         <v>912.10603903000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>3995.1509010917398</v>
+      </c>
+      <c r="Q8">
+        <v>3982.1213821423098</v>
+      </c>
+      <c r="R8">
+        <v>1943.74137767</v>
+      </c>
+      <c r="S8">
+        <v>1937.21416871</v>
+      </c>
+      <c r="T8">
+        <v>813.33511610999994</v>
+      </c>
+      <c r="U8">
+        <v>814.72442828999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -857,8 +1000,26 @@
       <c r="N9" s="3">
         <v>632.17476227999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>2058.32162504091</v>
+      </c>
+      <c r="Q9">
+        <v>2041.77997439714</v>
+      </c>
+      <c r="R9">
+        <v>1029.3944196</v>
+      </c>
+      <c r="S9">
+        <v>1021.31551885</v>
+      </c>
+      <c r="T9">
+        <v>506.11620531</v>
+      </c>
+      <c r="U9">
+        <v>496.15995865000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -898,8 +1059,26 @@
       <c r="N10" s="3">
         <v>349.51992281000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>1368.1995014105501</v>
+      </c>
+      <c r="Q10">
+        <v>1355.33347680218</v>
+      </c>
+      <c r="R10">
+        <v>692.11842832000002</v>
+      </c>
+      <c r="S10">
+        <v>687.84715032999998</v>
+      </c>
+      <c r="T10">
+        <v>373.46493792000001</v>
+      </c>
+      <c r="U10">
+        <v>369.66282631000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -942,8 +1121,26 @@
       <c r="N11" s="3">
         <v>0.11381123999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <v>5.0359402685249799E-2</v>
+      </c>
+      <c r="Q11">
+        <v>9.1779388121146499E-2</v>
+      </c>
+      <c r="R11">
+        <v>5.1607300000000002E-2</v>
+      </c>
+      <c r="S11">
+        <v>8.9617890000000006E-2</v>
+      </c>
+      <c r="T11">
+        <v>7.2629799999999994E-2</v>
+      </c>
+      <c r="U11">
+        <v>5.1368619999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -983,8 +1180,26 @@
       <c r="N12" s="3">
         <v>-0.25200052000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>-0.211144358597323</v>
+      </c>
+      <c r="Q12">
+        <v>-0.27203816938341802</v>
+      </c>
+      <c r="R12">
+        <v>-0.20289723000000001</v>
+      </c>
+      <c r="S12">
+        <v>-0.25252949000000002</v>
+      </c>
+      <c r="T12">
+        <v>-0.1662981</v>
+      </c>
+      <c r="U12">
+        <v>-0.12802358999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -1024,8 +1239,26 @@
       <c r="N13" s="3">
         <v>-6.0300999999999996E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>1.81664982440449E-3</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>3.1851940528549103E-5</v>
+      </c>
+      <c r="R13">
+        <v>1.48073E-3</v>
+      </c>
+      <c r="S13">
+        <v>-6.2370000000000001E-5</v>
+      </c>
+      <c r="T13">
+        <v>-2.6996000000000002E-4</v>
+      </c>
+      <c r="U13">
+        <v>2.0829999999999999E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -1065,8 +1298,26 @@
       <c r="N14" s="3">
         <v>3.9906000000000002E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>4.5676232130590104E-3</v>
+      </c>
+      <c r="Q14">
+        <v>5.9690974531147398E-3</v>
+      </c>
+      <c r="R14">
+        <v>4.3777599999999996E-3</v>
+      </c>
+      <c r="S14">
+        <v>5.8314400000000002E-3</v>
+      </c>
+      <c r="T14">
+        <v>9.4717E-4</v>
+      </c>
+      <c r="U14">
+        <v>-1.10614E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1106,8 +1357,26 @@
       <c r="N15" s="3">
         <v>-1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <v>-5.3000000000000001E-5</v>
+      </c>
+      <c r="Q15">
+        <v>-5.5000000000000002E-5</v>
+      </c>
+      <c r="R15">
+        <v>-1.5E-5</v>
+      </c>
+      <c r="S15">
+        <v>-3.0000000000000001E-5</v>
+      </c>
+      <c r="T15">
+        <v>-1.7E-5</v>
+      </c>
+      <c r="U15">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1147,26 +1416,79 @@
       <c r="N16" s="3">
         <v>-6.0000000000000002E-6</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="P16">
+        <v>5.9199999999999997E-4</v>
+      </c>
+      <c r="Q16">
+        <v>-4.26E-4</v>
+      </c>
+      <c r="R16">
+        <v>3.0200000000000002E-4</v>
+      </c>
+      <c r="S16">
+        <v>-2.7E-4</v>
+      </c>
+      <c r="T16">
+        <v>-1.65E-4</v>
+      </c>
+      <c r="U16">
+        <v>2.12E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <f>(C15*C15+C16*C16)^(1/2)</f>
+        <v>7.2111025509279784E-6</v>
+      </c>
+      <c r="D17">
+        <f>(D15*D15+D16*D16)^(1/2)</f>
+        <v>9.8488578017961046E-6</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="D17:N17" si="0">(E15*E15+E16*E16)^(1/2)</f>
+        <v>2.8284271247461899E-6</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.4142135623730949E-6</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>9.2195444572928873E-6</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1.6031219541881398E-5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>9.8994949366116646E-6</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>6.3245553203367592E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1178,15 +1500,13 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1198,12 +1518,13 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1215,15 +1536,13 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>20220111</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1235,432 +1554,232 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>20220314</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3">
-        <v>1072.3499999999999</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1076.6600000000001</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1098.8399999999999</v>
-      </c>
-      <c r="F22" s="3">
-        <v>801.12900000000002</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1081.24</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1081.24</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1081.24</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1007.52</v>
-      </c>
-      <c r="K22" s="3">
-        <v>999.19399999999996</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1007.77</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1009.12</v>
-      </c>
-      <c r="N22" s="3">
-        <v>925.29200000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <v>2749.7713181866602</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="3">
-        <v>1074.28</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1077.78</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1100.52</v>
-      </c>
-      <c r="F23" s="3">
-        <v>800.79100000000005</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1081.96</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1081.96</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1081.96</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1005.31</v>
-      </c>
-      <c r="K23" s="3">
-        <v>998.20399999999995</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1005.53</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1007.09</v>
-      </c>
-      <c r="N23" s="3">
-        <v>921.13800000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24"/>
-      <c r="B24" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>2748.1603751600001</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3">
-        <v>673.98099999999999</v>
-      </c>
-      <c r="D24" s="3">
-        <v>677.51700000000005</v>
-      </c>
-      <c r="E24" s="3">
-        <v>672.92</v>
-      </c>
-      <c r="F24" s="3">
-        <v>665.12900000000002</v>
-      </c>
-      <c r="G24" s="3">
-        <v>673.65700000000004</v>
-      </c>
-      <c r="H24" s="3">
-        <v>673.65700000000004</v>
-      </c>
-      <c r="I24" s="3">
-        <v>673.65700000000004</v>
-      </c>
-      <c r="J24" s="3">
-        <v>647.15099999999995</v>
-      </c>
-      <c r="K24" s="3">
-        <v>632.404</v>
-      </c>
-      <c r="L24" s="3">
-        <v>632.47699999999998</v>
-      </c>
-      <c r="M24" s="3">
-        <v>632.80899999999997</v>
-      </c>
-      <c r="N24" s="3">
-        <v>631.66300000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-      <c r="B25" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>664.36351643</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="3">
-        <v>495.84399999999999</v>
-      </c>
-      <c r="D25" s="3">
-        <v>497.286</v>
-      </c>
-      <c r="E25" s="3">
-        <v>496.39</v>
-      </c>
-      <c r="F25" s="3">
-        <v>494.69299999999998</v>
-      </c>
-      <c r="G25" s="3">
-        <v>499.42500000000001</v>
-      </c>
-      <c r="H25" s="3">
-        <v>499.42500000000001</v>
-      </c>
-      <c r="I25" s="3">
-        <v>499.42500000000001</v>
-      </c>
-      <c r="J25" s="3">
-        <v>352.74400000000003</v>
-      </c>
-      <c r="K25" s="3">
-        <v>360.85</v>
-      </c>
-      <c r="L25" s="3">
-        <v>358.60599999999999</v>
-      </c>
-      <c r="M25" s="3">
-        <v>357.529</v>
-      </c>
-      <c r="N25" s="3">
-        <v>353.46800000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26"/>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.106269</v>
-      </c>
-      <c r="D26" s="3">
-        <v>9.8456299999999997E-2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.12606800000000001</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3">
-        <v>-0.23340900000000001</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.110331</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0.110331</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0.110331</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-8.6332200000000005E-3</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1.27169E-4</v>
-      </c>
-      <c r="L26" s="3">
-        <v>9.9390699999999995E-3</v>
-      </c>
-      <c r="M26" s="3">
-        <v>4.75101E-3</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1.3766099999999999E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27"/>
+        <v>494.78851113000002</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="3">
-        <v>5.8031100000000002E-2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>5.3404899999999998E-2</v>
-      </c>
-      <c r="E27" s="3">
-        <v>7.0171399999999995E-2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3">
-        <v>0.55045900000000003</v>
-      </c>
-      <c r="G27" s="3">
-        <v>6.05126E-2</v>
-      </c>
-      <c r="H27" s="3">
-        <v>6.0512499999999997E-2</v>
-      </c>
-      <c r="I27" s="3">
-        <v>6.0512700000000003E-2</v>
-      </c>
-      <c r="J27" s="3">
+        <v>1.6318377100000001</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <v>-2.9638669999999999E-2</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <v>0.27184501</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
+        <v>-2.7370999999999998E-4</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
+        <v>7.7302000000000002E-4</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28" s="3">
-        <v>0.42056500000000002</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.32139899999999999</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0.15276000000000001</v>
-      </c>
-      <c r="F28" s="3">
-        <v>6.4026799999999995E-2</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.63475300000000001</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0.63475300000000001</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0.63475300000000001</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0.400698</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0.35143000000000002</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0.47082499999999999</v>
-      </c>
-      <c r="M28" s="3">
-        <v>0.468468</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0.63031599999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29" s="3">
-        <v>6236.73</v>
-      </c>
-      <c r="D29" s="3">
-        <v>5247.06</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3412.27</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1679.46</v>
-      </c>
-      <c r="G29" s="3">
-        <v>7434.43</v>
-      </c>
-      <c r="H29" s="3">
-        <v>7434.43</v>
-      </c>
-      <c r="I29" s="3">
-        <v>7434.43</v>
-      </c>
-      <c r="J29" s="3">
-        <v>20272.7</v>
-      </c>
-      <c r="K29" s="3">
-        <v>7209.59</v>
-      </c>
-      <c r="L29" s="3">
-        <v>8239.66</v>
-      </c>
-      <c r="M29" s="3">
-        <v>8244.32</v>
-      </c>
-      <c r="N29" s="3">
-        <v>28371.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.45603500000000002</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.42994599999999999</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.243316</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.202735</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0.55315700000000001</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.55315700000000001</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0.55315700000000001</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0.48104599999999997</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0.49570900000000001</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0.566689</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0.57331900000000002</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0.65867600000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1669,18 +1788,24 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+        <v>39</v>
+      </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3">
+        <v>-9.9999999999999995E-7</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -1689,16 +1814,17 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1709,14 +1835,17 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1727,14 +1856,23 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1745,18 +1883,26 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3">
-        <v>991.33699999999999</v>
-      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1766,16 +1912,23 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38"/>
-      <c r="B38" t="s">
-        <v>21</v>
-      </c>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3">
-        <v>994.16700000000003</v>
-      </c>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1785,16 +1938,26 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39"/>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>20220111</v>
+      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3">
-        <v>673.11900000000003</v>
-      </c>
+      <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -1804,179 +1967,576 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
       <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1072.3499999999999</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1076.6600000000001</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1098.8399999999999</v>
+      </c>
+      <c r="F40" s="3">
+        <v>801.12900000000002</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1081.24</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1081.24</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1081.24</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1007.52</v>
+      </c>
+      <c r="K40" s="3">
+        <v>999.19399999999996</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1007.77</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1009.12</v>
+      </c>
+      <c r="N40" s="3">
+        <v>925.29200000000003</v>
+      </c>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3">
+        <v>4444.8500000000004</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>4508.1400000000003</v>
+      </c>
+      <c r="R40" s="3">
+        <v>893.90099999999995</v>
+      </c>
+      <c r="S40" s="3">
+        <v>1336.17</v>
+      </c>
+      <c r="T40" s="3">
+        <v>1003.97</v>
+      </c>
+      <c r="U40" s="3">
+        <v>1231.77</v>
+      </c>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1074.28</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1077.78</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1100.52</v>
+      </c>
+      <c r="F41" s="3">
+        <v>800.79100000000005</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1081.96</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1081.96</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1081.96</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1005.31</v>
+      </c>
+      <c r="K41" s="3">
+        <v>998.20399999999995</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1005.53</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1007.09</v>
+      </c>
+      <c r="N41" s="3">
+        <v>921.13800000000003</v>
+      </c>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3">
+        <v>4454.79</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>4509.1400000000003</v>
+      </c>
+      <c r="R41" s="3">
+        <v>864.77200000000005</v>
+      </c>
+      <c r="S41" s="3">
+        <v>796.351</v>
+      </c>
+      <c r="T41" s="3">
+        <v>1005.3</v>
+      </c>
+      <c r="U41" s="3">
+        <v>1232.3</v>
+      </c>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+    </row>
+    <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42"/>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="3">
+        <v>673.98099999999999</v>
+      </c>
+      <c r="D42" s="3">
+        <v>677.51700000000005</v>
+      </c>
+      <c r="E42" s="3">
+        <v>672.92</v>
+      </c>
+      <c r="F42" s="3">
+        <v>665.12900000000002</v>
+      </c>
+      <c r="G42" s="3">
+        <v>673.65700000000004</v>
+      </c>
+      <c r="H42" s="3">
+        <v>673.65700000000004</v>
+      </c>
+      <c r="I42" s="3">
+        <v>673.65700000000004</v>
+      </c>
+      <c r="J42" s="3">
+        <v>647.15099999999995</v>
+      </c>
+      <c r="K42" s="3">
+        <v>632.404</v>
+      </c>
+      <c r="L42" s="3">
+        <v>632.47699999999998</v>
+      </c>
+      <c r="M42" s="3">
+        <v>632.80899999999997</v>
+      </c>
+      <c r="N42" s="3">
+        <v>631.66300000000001</v>
+      </c>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3">
+        <v>2023.42</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>1998.87</v>
+      </c>
+      <c r="R42" s="3">
+        <v>1410.48</v>
+      </c>
+      <c r="S42" s="3">
+        <v>2512.04</v>
+      </c>
+      <c r="T42" s="3">
+        <v>495.82799999999997</v>
+      </c>
+      <c r="U42" s="3">
+        <v>493.75</v>
+      </c>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+    </row>
+    <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43"/>
+      <c r="B43" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3">
-        <v>487.52199999999999</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="C43" s="3">
+        <v>495.84399999999999</v>
+      </c>
+      <c r="D43" s="3">
+        <v>497.286</v>
+      </c>
+      <c r="E43" s="3">
+        <v>496.39</v>
+      </c>
+      <c r="F43" s="3">
+        <v>494.69299999999998</v>
+      </c>
+      <c r="G43" s="3">
+        <v>499.42500000000001</v>
+      </c>
+      <c r="H43" s="3">
+        <v>499.42500000000001</v>
+      </c>
+      <c r="I43" s="3">
+        <v>499.42500000000001</v>
+      </c>
+      <c r="J43" s="3">
+        <v>352.74400000000003</v>
+      </c>
+      <c r="K43" s="3">
+        <v>360.85</v>
+      </c>
+      <c r="L43" s="3">
+        <v>358.60599999999999</v>
+      </c>
+      <c r="M43" s="3">
+        <v>357.529</v>
+      </c>
+      <c r="N43" s="3">
+        <v>353.46800000000002</v>
+      </c>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3">
+        <v>1306.93</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1285</v>
+      </c>
+      <c r="R43" s="3">
+        <v>984.36300000000006</v>
+      </c>
+      <c r="S43" s="3">
+        <v>1209.1300000000001</v>
+      </c>
+      <c r="T43" s="3">
+        <v>314.86799999999999</v>
+      </c>
+      <c r="U43" s="3">
+        <v>308.60700000000003</v>
+      </c>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+    </row>
+    <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44"/>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.106269</v>
+      </c>
+      <c r="D44" s="3">
+        <v>9.8456299999999997E-2</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.12606800000000001</v>
+      </c>
+      <c r="F44" s="3">
+        <v>-0.23340900000000001</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.110331</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.110331</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.110331</v>
+      </c>
+      <c r="J44" s="3">
+        <v>-8.6332200000000005E-3</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1.27169E-4</v>
+      </c>
+      <c r="L44" s="3">
+        <v>9.9390699999999995E-3</v>
+      </c>
+      <c r="M44" s="3">
+        <v>4.75101E-3</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1.3766099999999999E-3</v>
+      </c>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3">
+        <v>3.0782799999999999E-2</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>4.5120599999999997E-2</v>
+      </c>
+      <c r="R44" s="3">
+        <v>-0.10795399999999999</v>
+      </c>
+      <c r="S44" s="3">
+        <v>-5.5228199999999998E-2</v>
+      </c>
+      <c r="T44" s="3">
+        <v>-0.11477999999999999</v>
+      </c>
+      <c r="U44" s="3">
+        <v>8.8244699999999995E-2</v>
+      </c>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+    </row>
+    <row r="45" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45"/>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="3">
+        <v>5.8031100000000002E-2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>5.3404899999999998E-2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7.0171399999999995E-2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.55045900000000003</v>
+      </c>
+      <c r="G45" s="3">
+        <v>6.05126E-2</v>
+      </c>
+      <c r="H45" s="3">
+        <v>6.0512499999999997E-2</v>
+      </c>
+      <c r="I45" s="3">
+        <v>6.0512700000000003E-2</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0.69067199999999995</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0.80368399999999995</v>
+      </c>
+      <c r="T45" s="3">
+        <v>9.1760499999999995E-2</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+    </row>
+    <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>36</v>
       </c>
-      <c r="B41"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3">
-        <v>0.91605999999999999</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B46"/>
+      <c r="C46" s="3">
+        <v>0.42056500000000002</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.32139899999999999</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.15276000000000001</v>
+      </c>
+      <c r="F46" s="3">
+        <v>6.4026799999999995E-2</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.63475300000000001</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.63475300000000001</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.63475300000000001</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.400698</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0.35143000000000002</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0.47082499999999999</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.468468</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.63031599999999999</v>
+      </c>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3">
+        <v>4.0087599999999997</v>
+      </c>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3">
+        <v>436.22800000000001</v>
+      </c>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3">
+        <v>0.78433299999999995</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+    </row>
+    <row r="47" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>31</v>
       </c>
-      <c r="B42"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
-        <v>9768.9699999999993</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B47"/>
+      <c r="C47" s="3">
+        <v>6236.73</v>
+      </c>
+      <c r="D47" s="3">
+        <v>5247.06</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3412.27</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1679.46</v>
+      </c>
+      <c r="G47" s="3">
+        <v>7434.43</v>
+      </c>
+      <c r="H47" s="3">
+        <v>7434.43</v>
+      </c>
+      <c r="I47" s="3">
+        <v>7434.43</v>
+      </c>
+      <c r="J47" s="3">
+        <v>20272.7</v>
+      </c>
+      <c r="K47" s="3">
+        <v>7209.59</v>
+      </c>
+      <c r="L47" s="3">
+        <v>8239.66</v>
+      </c>
+      <c r="M47" s="3">
+        <v>8244.32</v>
+      </c>
+      <c r="N47" s="3">
+        <v>28371.8</v>
+      </c>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3">
+        <v>20120.2</v>
+      </c>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3">
+        <v>527572</v>
+      </c>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3">
+        <v>4197.78</v>
+      </c>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+    </row>
+    <row r="48" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>37</v>
       </c>
-      <c r="B43"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3">
-        <v>0.69658900000000001</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48">
-        <v>20211216</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="4">
-        <v>976.55712532041298</v>
-      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.45603500000000002</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.42994599999999999</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.243316</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.202735</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.55315700000000001</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.55315700000000001</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.55315700000000001</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.48104599999999997</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0.49570900000000001</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0.566689</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0.57331900000000002</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.65867600000000004</v>
+      </c>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3">
+        <v>1.6518999999999999</v>
+      </c>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3">
+        <v>56.497300000000003</v>
+      </c>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3">
+        <v>0.69201800000000002</v>
+      </c>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+    </row>
+    <row r="49" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -1986,14 +2546,30 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="4">
-        <v>977.98019880099605</v>
-      </c>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+    </row>
+    <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -2003,14 +2579,26 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+    </row>
+    <row r="51" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
       <c r="B51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="3">
-        <v>673.82457306168806</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2020,14 +2608,24 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="3">
-        <v>496.58406832349499</v>
-      </c>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+    </row>
+    <row r="52" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2037,163 +2635,609 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+    </row>
+    <row r="53" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+    </row>
+    <row r="54" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
+        <v>991.33699999999999</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+    </row>
+    <row r="55" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55"/>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
+        <v>994.16700000000003</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56"/>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3">
+        <v>673.11900000000003</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57"/>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
+        <v>487.52199999999999</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
+        <v>0.91605999999999999</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3">
+        <v>9768.9699999999993</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3">
+        <v>0.69658900000000001</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65">
+        <v>20211216</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="4">
+        <v>976.55712532041298</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1042.5754683441</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="P66" t="s">
+        <v>48</v>
+      </c>
+      <c r="U66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="4">
+        <v>977.98019880099605</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1042.10264375053</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="Q67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="3">
+        <v>673.82457306168806</v>
+      </c>
+      <c r="F68" s="3">
+        <v>664.57091283833995</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="3">
+        <v>496.58406832349499</v>
+      </c>
+      <c r="F69" s="3">
+        <v>494.62738779799599</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>40</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B70" t="s">
         <v>27</v>
       </c>
-      <c r="E53">
+      <c r="E70">
         <v>-0.110160221624095</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+      <c r="F70">
+        <v>-0.29595520617443399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>28</v>
       </c>
-      <c r="E54">
+      <c r="E71">
         <v>9.8677774133218904E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="F71">
+        <v>0.102433041195313</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>41</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B72" t="s">
         <v>29</v>
       </c>
-      <c r="E55">
+      <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>30</v>
       </c>
-      <c r="E56">
+      <c r="E73">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>42</v>
       </c>
-      <c r="E57">
+      <c r="E74">
         <v>0.23002407246565101</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="F74">
+        <v>0.251200368047166</v>
+      </c>
+      <c r="P74" t="s">
+        <v>48</v>
+      </c>
+      <c r="U74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>16</v>
       </c>
-      <c r="B64">
+      <c r="B81">
         <v>20211214</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>26</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B82" t="s">
         <v>20</v>
       </c>
-      <c r="E65">
+      <c r="E82">
         <v>977.30332833</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+      <c r="F82">
+        <v>1043.44205592</v>
+      </c>
+      <c r="T82">
+        <v>14839.73738348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>21</v>
       </c>
-      <c r="E66">
+      <c r="E83">
         <v>978.96299238999995</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+      <c r="F83">
+        <v>1042.80498515</v>
+      </c>
+      <c r="T83">
+        <v>13894.696526719999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>22</v>
       </c>
-      <c r="E67">
+      <c r="E84">
         <v>668.61445031000005</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+      <c r="F84">
+        <v>664.64595756999995</v>
+      </c>
+      <c r="T84">
+        <v>639.96850023000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>23</v>
       </c>
-      <c r="E68">
+      <c r="E85">
         <v>500.89350610000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="F85">
+        <v>495.12359280999999</v>
+      </c>
+      <c r="T85">
+        <v>478.8815305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>19</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B86" t="s">
         <v>27</v>
       </c>
-      <c r="E69">
+      <c r="E86">
         <v>-0.11461281</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+      <c r="F86">
+        <v>-0.31222464999999999</v>
+      </c>
+      <c r="T86">
+        <v>3.6861551000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
         <v>28</v>
       </c>
-      <c r="E70">
+      <c r="E87">
         <v>0.12946814000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
+      <c r="F87">
+        <v>0.16229878</v>
+      </c>
+      <c r="T87">
+        <v>865.38231173999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
         <v>29</v>
       </c>
-      <c r="E71">
+      <c r="E88">
         <v>1.4266700000000001E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+      <c r="F88">
+        <v>-1.3132000000000001E-4</v>
+      </c>
+      <c r="T88">
+        <v>0.45370999000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>30</v>
       </c>
-      <c r="E72">
+      <c r="E89">
         <v>-1.48431E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+      <c r="F89">
+        <v>2.3923E-4</v>
+      </c>
+      <c r="T89">
+        <v>4.1710009999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>43</v>
       </c>
-      <c r="E73">
+      <c r="E90">
         <v>-4.6177059999999999E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="F90">
+        <v>-5.7291500000000002E-2</v>
+      </c>
+      <c r="T90">
+        <v>1.1412876300000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>44</v>
       </c>
-      <c r="E74">
+      <c r="E91">
         <v>0.34789329373986699</v>
+      </c>
+      <c r="F91">
+        <v>0.26395044788299998</v>
+      </c>
+      <c r="T91">
+        <v>0.38358855700799999</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/Result/CamCalibrReslt.xlsx
+++ b/Dataset/Result/CamCalibrReslt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamCalibrCode\Dataset\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B620FF1-41D0-4FDA-A473-710AE97950B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52ABBCB-F5E3-4510-B497-6294DDD56323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{09F59CA0-44DD-4B04-B6E8-C57DCB2DEB30}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
   <si>
     <t>bluefox_artemis_degenerate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,25 @@
   <si>
     <t>reprojection error</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equidistant</t>
   </si>
 </sst>
 </file>
@@ -661,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B3D889-EC1D-439D-8CEA-E8B9FCCACCAB}">
-  <dimension ref="A1:W91"/>
+  <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1448,7 +1467,7 @@
         <v>9.8488578017961046E-6</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="D17:N17" si="0">(E15*E15+E16*E16)^(1/2)</f>
+        <f t="shared" ref="E17:N17" si="0">(E15*E15+E16*E16)^(1/2)</f>
         <v>2.8284271247461899E-6</v>
       </c>
       <c r="F17">
@@ -2827,8 +2846,9 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C61" s="3"/>
+    <row r="61" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61"/>
+      <c r="B61"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -2841,14 +2861,13 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>13</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>32</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -2861,11 +2880,13 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -2878,11 +2899,11 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="B64"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -2895,13 +2916,12 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
-      <c r="B65">
-        <v>20211216</v>
-      </c>
+      <c r="B65"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -2913,18 +2933,17 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>26</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="4">
-        <v>976.55712532041298</v>
-      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
       <c r="F66" s="3">
-        <v>1042.5754683441</v>
+        <v>1045.01683452204</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -2934,22 +2953,16 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="P66" t="s">
-        <v>48</v>
-      </c>
-      <c r="U66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67"/>
       <c r="B67" t="s">
         <v>21</v>
       </c>
-      <c r="E67" s="4">
-        <v>977.98019880099605</v>
-      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
       <c r="F67" s="3">
-        <v>1042.10264375053</v>
+        <v>1044.57829360966</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -2959,19 +2972,16 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="Q67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68"/>
       <c r="B68" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="3">
-        <v>673.82457306168806</v>
-      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
       <c r="F68" s="3">
-        <v>664.57091283833995</v>
+        <v>665.13559233037199</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -2982,15 +2992,15 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69"/>
       <c r="B69" t="s">
         <v>23</v>
       </c>
-      <c r="E69" s="3">
-        <v>496.58406832349499</v>
-      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
       <c r="F69" s="3">
-        <v>494.62738779799599</v>
+        <v>494.68992317164901</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -3001,242 +3011,549 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>40</v>
-      </c>
+    <row r="70" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70"/>
       <c r="B70" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70">
-        <v>-0.110160221624095</v>
-      </c>
-      <c r="F70">
-        <v>-0.29595520617443399</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3">
+        <v>1.86255038399144E-2</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71"/>
       <c r="B71" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71">
-        <v>9.8677774133218904E-2</v>
-      </c>
-      <c r="F71">
-        <v>0.102433041195313</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>41</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3">
+        <v>-6.8794256746242E-3</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72"/>
       <c r="B72" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3">
+        <v>4.5631832966251298E-2</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73"/>
       <c r="B73" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3">
+        <v>-5.1984229091252901E-2</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>42</v>
-      </c>
-      <c r="E74">
-        <v>0.23002407246565101</v>
-      </c>
-      <c r="F74">
-        <v>0.251200368047166</v>
-      </c>
-      <c r="P74" t="s">
-        <v>48</v>
-      </c>
-      <c r="U74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="B74"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3">
+        <v>6.3996399999999995E-2</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3">
+        <v>1678.91</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3">
+        <v>0.20266899999999999</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>13</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>16</v>
       </c>
       <c r="B81">
-        <v>20211214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+        <v>20211216</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>26</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
-      <c r="E82">
-        <v>977.30332833</v>
-      </c>
-      <c r="F82">
-        <v>1043.44205592</v>
-      </c>
-      <c r="T82">
-        <v>14839.73738348</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E82" s="4">
+        <v>977.03255697986697</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1042.27691769598</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="P82" t="s">
+        <v>48</v>
+      </c>
+      <c r="U82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>21</v>
       </c>
-      <c r="E83">
-        <v>978.96299238999995</v>
-      </c>
-      <c r="F83">
-        <v>1042.80498515</v>
-      </c>
-      <c r="T83">
-        <v>13894.696526719999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E83" s="4">
+        <v>978.69200201388401</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1041.64561099203</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="Q83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>22</v>
       </c>
-      <c r="E84">
-        <v>668.61445031000005</v>
-      </c>
-      <c r="F84">
-        <v>664.64595756999995</v>
-      </c>
-      <c r="T84">
-        <v>639.96850023000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E84" s="3">
+        <v>668.84921388594898</v>
+      </c>
+      <c r="F84" s="3">
+        <v>664.01211580097799</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>23</v>
       </c>
-      <c r="E85">
-        <v>500.89350610000002</v>
-      </c>
-      <c r="F85">
-        <v>495.12359280999999</v>
-      </c>
-      <c r="T85">
-        <v>478.8815305</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E85" s="3">
+        <v>500.73015159150401</v>
+      </c>
+      <c r="F85" s="3">
+        <v>494.88714895644898</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B86" t="s">
         <v>27</v>
       </c>
       <c r="E86">
-        <v>-0.11461281</v>
+        <v>-0.10833326216368</v>
       </c>
       <c r="F86">
-        <v>-0.31222464999999999</v>
-      </c>
-      <c r="T86">
-        <v>3.6861551000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+        <v>-0.29569018103178002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>28</v>
       </c>
       <c r="E87">
-        <v>0.12946814000000001</v>
+        <v>9.5366149198614497E-2</v>
       </c>
       <c r="F87">
-        <v>0.16229878</v>
-      </c>
-      <c r="T87">
-        <v>865.38231173999998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0.10259711547492301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>41</v>
+      </c>
       <c r="B88" t="s">
         <v>29</v>
       </c>
       <c r="E88">
-        <v>1.4266700000000001E-3</v>
-      </c>
-      <c r="F88">
-        <v>-1.3132000000000001E-4</v>
-      </c>
-      <c r="T88">
-        <v>0.45370999000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1.40725892773462E-3</v>
+      </c>
+      <c r="F88" s="5">
+        <v>-9.7278384628337697E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>30</v>
       </c>
       <c r="E89">
+        <v>-1.4471839037234601E-3</v>
+      </c>
+      <c r="F89">
+        <v>2.2107402436058701E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90">
+        <v>0.222107858749961</v>
+      </c>
+      <c r="F90">
+        <v>0.25077119181709201</v>
+      </c>
+      <c r="P90" t="s">
+        <v>48</v>
+      </c>
+      <c r="U90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97">
+        <v>20211214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <v>977.30332833</v>
+      </c>
+      <c r="F98">
+        <v>1043.44205592</v>
+      </c>
+      <c r="T98">
+        <v>14839.73738348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99">
+        <v>978.96299238999995</v>
+      </c>
+      <c r="F99">
+        <v>1042.80498515</v>
+      </c>
+      <c r="T99">
+        <v>13894.696526719999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100">
+        <v>668.61445031000005</v>
+      </c>
+      <c r="F100">
+        <v>664.64595756999995</v>
+      </c>
+      <c r="T100">
+        <v>639.96850023000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101">
+        <v>500.89350610000002</v>
+      </c>
+      <c r="F101">
+        <v>495.12359280999999</v>
+      </c>
+      <c r="T101">
+        <v>478.8815305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102">
+        <v>-0.11461281</v>
+      </c>
+      <c r="F102">
+        <v>-0.31222464999999999</v>
+      </c>
+      <c r="T102">
+        <v>3.6861551000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103">
+        <v>0.12946814000000001</v>
+      </c>
+      <c r="F103">
+        <v>0.16229878</v>
+      </c>
+      <c r="T103">
+        <v>865.38231173999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104">
+        <v>1.4266700000000001E-3</v>
+      </c>
+      <c r="F104">
+        <v>-1.3132000000000001E-4</v>
+      </c>
+      <c r="T104">
+        <v>0.45370999000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105">
         <v>-1.48431E-3</v>
       </c>
-      <c r="F89">
+      <c r="F105">
         <v>2.3923E-4</v>
       </c>
-      <c r="T89">
+      <c r="T105">
         <v>4.1710009999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
         <v>43</v>
       </c>
-      <c r="E90">
+      <c r="E106">
         <v>-4.6177059999999999E-2</v>
       </c>
-      <c r="F90">
+      <c r="F106">
         <v>-5.7291500000000002E-2</v>
       </c>
-      <c r="T90">
+      <c r="T106">
         <v>1.1412876300000001</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>44</v>
       </c>
-      <c r="E91">
+      <c r="E107">
         <v>0.34789329373986699</v>
       </c>
-      <c r="F91">
+      <c r="F107">
         <v>0.26395044788299998</v>
       </c>
-      <c r="T91">
+      <c r="T107">
         <v>0.38358855700799999</v>
       </c>
     </row>

--- a/Dataset/Result/CamCalibrReslt.xlsx
+++ b/Dataset/Result/CamCalibrReslt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamCalibrCode\Dataset\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52ABBCB-F5E3-4510-B497-6294DDD56323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D0DEF9-3862-4117-9FE4-E47BAB4E66CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{09F59CA0-44DD-4B04-B6E8-C57DCB2DEB30}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="67">
   <si>
     <t>bluefox_artemis_degenerate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,13 +279,25 @@
   </si>
   <si>
     <t>equidistant</t>
+  </si>
+  <si>
+    <t>intr_gs_40_5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pinhole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kalibr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +330,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -347,7 +367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,6 +384,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B3D889-EC1D-439D-8CEA-E8B9FCCACCAB}">
-  <dimension ref="A1:W107"/>
+  <dimension ref="A1:X107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:U2"/>
+    <sheetView tabSelected="1" topLeftCell="H79" workbookViewId="0">
+      <selection activeCell="W110" sqref="W110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,9 +726,10 @@
     <col min="16" max="18" width="10.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C1">
         <v>1</v>
       </c>
@@ -763,18 +787,21 @@
       <c r="U1">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
@@ -822,40 +849,55 @@
       <c r="U2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
         <v>20211125</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W6">
+        <v>20220531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -919,8 +961,11 @@
       <c r="U7">
         <v>809.70130953</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W7">
+        <v>741.13860871852103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -978,8 +1023,11 @@
       <c r="U8">
         <v>814.72442828999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W8">
+        <v>740.10935701444896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1037,8 +1085,11 @@
       <c r="U9">
         <v>496.15995865000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W9">
+        <v>641.52384619719101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1096,8 +1147,11 @@
       <c r="U10">
         <v>369.66282631000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W10">
+        <v>513.47937451590406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1158,8 +1212,11 @@
       <c r="U11">
         <v>5.1368619999999997E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W11">
+        <v>1.7812318374700299E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1217,8 +1274,11 @@
       <c r="U12">
         <v>-0.12802358999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W12">
+        <v>1.9926210804139398E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -1276,8 +1336,11 @@
       <c r="U13">
         <v>2.0829999999999999E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W13">
+        <v>1.4825144328253601E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -1335,8 +1398,11 @@
       <c r="U14">
         <v>-1.10614E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W14" s="5">
+        <v>-9.1220831206461405E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1394,8 +1460,11 @@
       <c r="U15">
         <v>5.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1452,6 +1521,9 @@
       </c>
       <c r="U16">
         <v>2.12E-4</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -1505,6 +1577,9 @@
       <c r="N17">
         <f t="shared" si="0"/>
         <v>6.3245553203367592E-6</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -2550,7 +2625,7 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
     </row>
-    <row r="49" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49" s="3"/>
@@ -2579,7 +2654,7 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
     </row>
-    <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2608,7 +2683,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
     </row>
-    <row r="51" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -2637,7 +2712,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
     </row>
-    <row r="52" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2664,7 +2739,7 @@
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
     </row>
-    <row r="53" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2691,7 +2766,7 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
     </row>
-    <row r="54" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -2719,7 +2794,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
     </row>
-    <row r="55" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55" t="s">
         <v>21</v>
@@ -2745,7 +2820,7 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
     </row>
-    <row r="56" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56" t="s">
         <v>22</v>
@@ -2771,7 +2846,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
     </row>
-    <row r="57" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57" t="s">
         <v>23</v>
@@ -2789,7 +2864,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -2808,7 +2883,7 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
     </row>
-    <row r="59" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -2827,7 +2902,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -2845,8 +2920,16 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+    </row>
+    <row r="61" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="D61" s="3"/>
@@ -2860,8 +2943,16 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+    </row>
+    <row r="62" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -2879,8 +2970,16 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+    </row>
+    <row r="63" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -2898,8 +2997,16 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+    </row>
+    <row r="64" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -2915,8 +3022,16 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+    </row>
+    <row r="65" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -2932,8 +3047,16 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+    </row>
+    <row r="66" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -2953,8 +3076,18 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3">
+        <v>741.32413181142203</v>
+      </c>
+      <c r="X66" s="3"/>
+    </row>
+    <row r="67" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67" t="s">
         <v>21</v>
@@ -2972,8 +3105,18 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3">
+        <v>740.39603121738799</v>
+      </c>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68" t="s">
         <v>22</v>
@@ -2991,8 +3134,18 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3">
+        <v>641.41312692925896</v>
+      </c>
+      <c r="X68" s="3"/>
+    </row>
+    <row r="69" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69" t="s">
         <v>23</v>
@@ -3010,8 +3163,18 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3">
+        <v>513.26932070095302</v>
+      </c>
+      <c r="X69" s="3"/>
+    </row>
+    <row r="70" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70" t="s">
         <v>59</v>
@@ -3029,8 +3192,18 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3">
+        <v>1.8331507764619899E-2</v>
+      </c>
+      <c r="X70" s="3"/>
+    </row>
+    <row r="71" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" t="s">
         <v>60</v>
@@ -3048,8 +3221,18 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3">
+        <v>6.7836828867549805E-4</v>
+      </c>
+      <c r="X71" s="3"/>
+    </row>
+    <row r="72" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72" t="s">
         <v>61</v>
@@ -3067,8 +3250,18 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3">
+        <v>3.5957972213757701E-3</v>
+      </c>
+      <c r="X72" s="3"/>
+    </row>
+    <row r="73" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73" t="s">
         <v>62</v>
@@ -3086,8 +3279,18 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3">
+        <v>-1.2919691421533501E-3</v>
+      </c>
+      <c r="X73" s="3"/>
+    </row>
+    <row r="74" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -3105,8 +3308,18 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3">
+        <v>2.0262100000000002E-2</v>
+      </c>
+      <c r="X74" s="3"/>
+    </row>
+    <row r="75" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -3124,8 +3337,18 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3">
+        <v>9638.17</v>
+      </c>
+      <c r="X75" s="3"/>
+    </row>
+    <row r="76" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -3143,8 +3366,16 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3">
+        <v>0.12055</v>
+      </c>
+      <c r="X76" s="3"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3157,8 +3388,14 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -3177,8 +3414,14 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -3194,8 +3437,14 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -3211,8 +3460,14 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -3229,8 +3484,14 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -3254,11 +3515,16 @@
       <c r="P82" t="s">
         <v>48</v>
       </c>
-      <c r="U82" t="s">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>21</v>
       </c>
@@ -3280,7 +3546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>22</v>
       </c>
@@ -3299,7 +3565,7 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>23</v>
       </c>
@@ -3318,7 +3584,7 @@
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -3332,7 +3598,7 @@
         <v>-0.29569018103178002</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>28</v>
       </c>
@@ -3343,7 +3609,7 @@
         <v>0.10259711547492301</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>41</v>
       </c>
@@ -3357,7 +3623,7 @@
         <v>-9.7278384628337697E-5</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>30</v>
       </c>
@@ -3368,7 +3634,7 @@
         <v>2.2107402436058701E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -3385,7 +3651,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -3393,17 +3659,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -3411,7 +3677,7 @@
         <v>20211214</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -3427,8 +3693,11 @@
       <c r="T98">
         <v>14839.73738348</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W98">
+        <v>741.36777522</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>21</v>
       </c>
@@ -3441,8 +3710,11 @@
       <c r="T99">
         <v>13894.696526719999</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W99">
+        <v>740.22092375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>22</v>
       </c>
@@ -3455,8 +3727,11 @@
       <c r="T100">
         <v>639.96850023000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W100">
+        <v>639.99067258000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>23</v>
       </c>
@@ -3469,8 +3744,11 @@
       <c r="T101">
         <v>478.8815305</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W101">
+        <v>515.48692446999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -3486,8 +3764,11 @@
       <c r="T102">
         <v>3.6861551000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W102">
+        <v>-0.28463873000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>28</v>
       </c>
@@ -3500,8 +3781,11 @@
       <c r="T103">
         <v>865.38231173999998</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W103">
+        <v>9.7633609999999996E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>29</v>
       </c>
@@ -3514,8 +3798,11 @@
       <c r="T104">
         <v>0.45370999000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W104">
+        <v>-1.7802000000000001E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>30</v>
       </c>
@@ -3528,8 +3815,11 @@
       <c r="T105">
         <v>4.1710009999999999E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W105">
+        <v>1.013E-5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>43</v>
       </c>
@@ -3542,8 +3832,11 @@
       <c r="T106">
         <v>1.1412876300000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W106">
+        <v>-1.6098060000000001E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>44</v>
       </c>
@@ -3555,6 +3848,9 @@
       </c>
       <c r="T107">
         <v>0.38358855700799999</v>
+      </c>
+      <c r="W107">
+        <v>0.35199544170000002</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/Result/CamCalibrReslt.xlsx
+++ b/Dataset/Result/CamCalibrReslt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamCalibrCode\Dataset\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D0DEF9-3862-4117-9FE4-E47BAB4E66CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34A93EC-A9AC-4E11-A7A0-166F1F6085DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{09F59CA0-44DD-4B04-B6E8-C57DCB2DEB30}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="78">
   <si>
     <t>bluefox_artemis_degenerate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,50 @@
   </si>
   <si>
     <t>kalibr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ueye_190fov_a_down_4ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kalibr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pinhole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equidistant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intr_gs_40_5_1_down_4ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infinity_down_994_663</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fisheye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opencv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B3D889-EC1D-439D-8CEA-E8B9FCCACCAB}">
-  <dimension ref="A1:X107"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H79" workbookViewId="0">
-      <selection activeCell="W110" sqref="W110"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -727,9 +771,12 @@
     <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" customWidth="1"/>
+    <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C1">
         <v>1</v>
       </c>
@@ -790,8 +837,17 @@
       <c r="W1">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X1">
+        <v>21</v>
+      </c>
+      <c r="Y1">
+        <v>22</v>
+      </c>
+      <c r="Z1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -852,8 +908,17 @@
       <c r="W2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -863,8 +928,17 @@
       <c r="W3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -874,8 +948,17 @@
       <c r="W4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -885,8 +968,17 @@
       <c r="W5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -896,8 +988,11 @@
       <c r="W6">
         <v>20220531</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y6">
+        <v>20220610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -964,8 +1059,17 @@
       <c r="W7">
         <v>741.13860871852103</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7">
+        <v>370.70072771999997</v>
+      </c>
+      <c r="Y7">
+        <v>205.45951532999999</v>
+      </c>
+      <c r="Z7">
+        <v>995.03514671000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1026,8 +1130,17 @@
       <c r="W8">
         <v>740.10935701444896</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8">
+        <v>370.17124643</v>
+      </c>
+      <c r="Y8">
+        <v>205.41150701000001</v>
+      </c>
+      <c r="Z8">
+        <v>994.35611406999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1088,8 +1201,17 @@
       <c r="W9">
         <v>641.52384619719101</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9">
+        <v>320.66600369999998</v>
+      </c>
+      <c r="Y9">
+        <v>398.24209138999998</v>
+      </c>
+      <c r="Z9">
+        <v>485.92330009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1150,8 +1272,17 @@
       <c r="W10">
         <v>513.47937451590406</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10">
+        <v>256.81441044000002</v>
+      </c>
+      <c r="Y10">
+        <v>289.35859883000001</v>
+      </c>
+      <c r="Z10">
+        <v>335.46788048000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1215,8 +1346,17 @@
       <c r="W11">
         <v>1.7812318374700299E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11">
+        <v>1.7639249999999999E-2</v>
+      </c>
+      <c r="Y11">
+        <v>-3.0102499999999999E-3</v>
+      </c>
+      <c r="Z11">
+        <v>0.19971195999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1277,8 +1417,17 @@
       <c r="W12">
         <v>1.9926210804139398E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12">
+        <v>2.43692E-3</v>
+      </c>
+      <c r="Y12">
+        <v>-1.353699E-2</v>
+      </c>
+      <c r="Z12">
+        <v>1.4329039400000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -1339,8 +1488,17 @@
       <c r="W13">
         <v>1.4825144328253601E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13">
+        <v>1.0437999999999999E-3</v>
+      </c>
+      <c r="Y13">
+        <v>7.4427299999999998E-3</v>
+      </c>
+      <c r="Z13">
+        <v>-5.7683989699999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -1401,8 +1559,17 @@
       <c r="W14" s="5">
         <v>-9.1220831206461405E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="5">
+        <v>-5.7479999999999999E-5</v>
+      </c>
+      <c r="Y14">
+        <v>-2.2855599999999998E-3</v>
+      </c>
+      <c r="Z14">
+        <v>7.3342826299999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1463,8 +1630,17 @@
       <c r="W15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1525,8 +1701,17 @@
       <c r="W16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>-9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1559,7 +1744,7 @@
         <v>1.6031219541881398E-5</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f>(J15*J15+J16*J16)^(1/2)</f>
         <v>9.8994949366116646E-6</v>
       </c>
       <c r="K17">
@@ -1581,8 +1766,17 @@
       <c r="W17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>-1.4139999999999999E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1594,7 +1788,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1612,7 +1806,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1630,7 +1824,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1648,7 +1842,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1666,7 +1860,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1686,7 +1880,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -1703,7 +1897,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -1720,7 +1914,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -1737,7 +1931,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>46</v>
       </c>
@@ -1762,7 +1956,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1790,7 +1984,7 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -1815,7 +2009,7 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -1840,7 +2034,7 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -1865,8 +2059,9 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1891,8 +2086,9 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1917,8 +2113,9 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1938,8 +2135,9 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1959,8 +2157,9 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1986,8 +2185,9 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2015,8 +2215,9 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2041,8 +2242,9 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -2070,8 +2272,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -2135,8 +2338,9 @@
       </c>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>21</v>
       </c>
@@ -2197,8 +2401,9 @@
       </c>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-    </row>
-    <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" t="s">
         <v>22</v>
@@ -2260,8 +2465,9 @@
       </c>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-    </row>
-    <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43" t="s">
         <v>23</v>
@@ -2323,8 +2529,9 @@
       </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-    </row>
-    <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X43" s="3"/>
+    </row>
+    <row r="44" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44" t="s">
         <v>34</v>
@@ -2386,8 +2593,9 @@
       </c>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-    </row>
-    <row r="45" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X44" s="3"/>
+    </row>
+    <row r="45" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45" t="s">
         <v>35</v>
@@ -2449,8 +2657,9 @@
       </c>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-    </row>
-    <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X45" s="3"/>
+    </row>
+    <row r="46" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -2508,8 +2717,9 @@
       </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X46" s="3"/>
+    </row>
+    <row r="47" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -2565,8 +2775,9 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
-    </row>
-    <row r="48" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -2624,8 +2835,9 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
-    </row>
-    <row r="49" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X48" s="3"/>
+    </row>
+    <row r="49" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49" s="3"/>
@@ -2653,8 +2865,9 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2682,8 +2895,9 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X50" s="3"/>
+    </row>
+    <row r="51" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -2711,8 +2925,9 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-    </row>
-    <row r="52" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X51" s="3"/>
+    </row>
+    <row r="52" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2738,8 +2953,9 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2765,8 +2981,9 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-    </row>
-    <row r="54" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X53" s="3"/>
+    </row>
+    <row r="54" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -2794,7 +3011,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
     </row>
-    <row r="55" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55" t="s">
         <v>21</v>
@@ -2820,7 +3037,7 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
     </row>
-    <row r="56" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56" t="s">
         <v>22</v>
@@ -2846,7 +3063,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
     </row>
-    <row r="57" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57" t="s">
         <v>23</v>
@@ -2864,7 +3081,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -2883,7 +3100,7 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
     </row>
-    <row r="59" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -2902,7 +3119,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -2928,8 +3145,9 @@
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
-    </row>
-    <row r="61" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3"/>
+    </row>
+    <row r="61" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="D61" s="3"/>
@@ -2951,8 +3169,9 @@
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
-    </row>
-    <row r="62" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3"/>
+    </row>
+    <row r="62" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -2978,8 +3197,9 @@
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
-    </row>
-    <row r="63" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3"/>
+    </row>
+    <row r="63" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -3005,8 +3225,9 @@
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
-    </row>
-    <row r="64" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3"/>
+    </row>
+    <row r="64" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -3030,8 +3251,9 @@
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
-    </row>
-    <row r="65" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3"/>
+    </row>
+    <row r="65" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -3055,8 +3277,11 @@
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
-    </row>
-    <row r="66" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+    </row>
+    <row r="66" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -3085,9 +3310,18 @@
       <c r="W66" s="3">
         <v>741.32413181142203</v>
       </c>
-      <c r="X66" s="3"/>
-    </row>
-    <row r="67" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>1127.53</v>
+      </c>
+      <c r="AA66" s="3"/>
+    </row>
+    <row r="67" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67" t="s">
         <v>21</v>
@@ -3115,8 +3349,13 @@
         <v>740.39603121738799</v>
       </c>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3">
+        <v>1127.58</v>
+      </c>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68" t="s">
         <v>22</v>
@@ -3144,8 +3383,13 @@
         <v>641.41312692925896</v>
       </c>
       <c r="X68" s="3"/>
-    </row>
-    <row r="69" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3">
+        <v>455.90499999999997</v>
+      </c>
+      <c r="AA68" s="3"/>
+    </row>
+    <row r="69" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69" t="s">
         <v>23</v>
@@ -3173,8 +3417,13 @@
         <v>513.26932070095302</v>
       </c>
       <c r="X69" s="3"/>
-    </row>
-    <row r="70" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3">
+        <v>332.61700000000002</v>
+      </c>
+      <c r="AA69" s="3"/>
+    </row>
+    <row r="70" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70" t="s">
         <v>59</v>
@@ -3202,8 +3451,13 @@
         <v>1.8331507764619899E-2</v>
       </c>
       <c r="X70" s="3"/>
-    </row>
-    <row r="71" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3">
+        <v>0.41014499999999998</v>
+      </c>
+      <c r="AA70" s="3"/>
+    </row>
+    <row r="71" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" t="s">
         <v>60</v>
@@ -3231,8 +3485,13 @@
         <v>6.7836828867549805E-4</v>
       </c>
       <c r="X71" s="3"/>
-    </row>
-    <row r="72" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3">
+        <v>-0.51492599999999999</v>
+      </c>
+      <c r="AA71" s="3"/>
+    </row>
+    <row r="72" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72" t="s">
         <v>61</v>
@@ -3260,8 +3519,13 @@
         <v>3.5957972213757701E-3</v>
       </c>
       <c r="X72" s="3"/>
-    </row>
-    <row r="73" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3">
+        <v>2.6931099999999999</v>
+      </c>
+      <c r="AA72" s="3"/>
+    </row>
+    <row r="73" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73" t="s">
         <v>62</v>
@@ -3289,8 +3553,13 @@
         <v>-1.2919691421533501E-3</v>
       </c>
       <c r="X73" s="3"/>
-    </row>
-    <row r="74" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3">
+        <v>-7.2500799999999996</v>
+      </c>
+      <c r="AA73" s="3"/>
+    </row>
+    <row r="74" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -3318,8 +3587,13 @@
         <v>2.0262100000000002E-2</v>
       </c>
       <c r="X74" s="3"/>
-    </row>
-    <row r="75" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3">
+        <v>5.4002099999999997E-2</v>
+      </c>
+      <c r="AA74" s="3"/>
+    </row>
+    <row r="75" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -3347,8 +3621,13 @@
         <v>9638.17</v>
       </c>
       <c r="X75" s="3"/>
-    </row>
-    <row r="76" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3">
+        <v>1355.09</v>
+      </c>
+      <c r="AA75" s="3"/>
+    </row>
+    <row r="76" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -3374,8 +3653,13 @@
         <v>0.12055</v>
       </c>
       <c r="X76" s="3"/>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3">
+        <v>0.164793</v>
+      </c>
+      <c r="AA76" s="3"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3394,8 +3678,11 @@
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -3420,8 +3707,11 @@
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -3443,8 +3733,9 @@
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y79" s="3"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -3466,8 +3757,9 @@
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="3"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -3490,8 +3782,9 @@
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -3523,8 +3816,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>21</v>
       </c>
@@ -3546,7 +3840,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>22</v>
       </c>
@@ -3565,7 +3859,7 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>23</v>
       </c>
@@ -3584,7 +3878,7 @@
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -3598,7 +3892,7 @@
         <v>-0.29569018103178002</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>28</v>
       </c>
@@ -3609,7 +3903,7 @@
         <v>0.10259711547492301</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>41</v>
       </c>
@@ -3623,7 +3917,7 @@
         <v>-9.7278384628337697E-5</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>30</v>
       </c>
@@ -3634,7 +3928,7 @@
         <v>2.2107402436058701E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -3651,7 +3945,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -3659,17 +3953,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W95" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W96" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -3677,7 +3983,7 @@
         <v>20211214</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -3696,8 +4002,17 @@
       <c r="W98">
         <v>741.36777522</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X98" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z98">
+        <v>2816.0028990599999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>21</v>
       </c>
@@ -3713,8 +4028,11 @@
       <c r="W99">
         <v>740.22092375</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z99">
+        <v>2768.1579470000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>22</v>
       </c>
@@ -3730,8 +4048,11 @@
       <c r="W100">
         <v>639.99067258000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z100">
+        <v>546.95457762000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>23</v>
       </c>
@@ -3747,8 +4068,11 @@
       <c r="W101">
         <v>515.48692446999996</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z101">
+        <v>411.61134965999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -3765,10 +4089,13 @@
         <v>3.6861551000000001</v>
       </c>
       <c r="W102">
-        <v>-0.28463873000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1.8463872999999999E-2</v>
+      </c>
+      <c r="Z102">
+        <v>0.39215822</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>28</v>
       </c>
@@ -3782,10 +4109,13 @@
         <v>865.38231173999998</v>
       </c>
       <c r="W103">
-        <v>9.7633609999999996E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1.763361E-3</v>
+      </c>
+      <c r="Z103">
+        <v>-1.70811837</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>29</v>
       </c>
@@ -3799,10 +4129,13 @@
         <v>0.45370999000000001</v>
       </c>
       <c r="W104">
-        <v>-1.7802000000000001E-4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1.4780209999999999E-3</v>
+      </c>
+      <c r="Z104">
+        <v>4.0211740300000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>30</v>
       </c>
@@ -3816,10 +4149,13 @@
         <v>4.1710009999999999E-2</v>
       </c>
       <c r="W105">
-        <v>1.013E-5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+        <v>-1.010139E-3</v>
+      </c>
+      <c r="Z105">
+        <v>-7.0367887299999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>43</v>
       </c>
@@ -3832,11 +4168,8 @@
       <c r="T106">
         <v>1.1412876300000001</v>
       </c>
-      <c r="W106">
-        <v>-1.6098060000000001E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>44</v>
       </c>
@@ -3852,6 +4185,23 @@
       <c r="W107">
         <v>0.35199544170000002</v>
       </c>
+      <c r="Z107">
+        <v>0.56553738254399999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA110" s="3"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA111" s="3"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA112" s="3"/>
+    </row>
+    <row r="113" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
+      <c r="AA113" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
